--- a/Support/DBScripts/Отчеты/Формы/Студенты по адресам (для выборов 2015) Дубиковский.xlsx
+++ b/Support/DBScripts/Отчеты/Формы/Студенты по адресам (для выборов 2015) Дубиковский.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
   <si>
     <t>ИИ (СПО)</t>
   </si>
@@ -420,6 +420,72 @@
   </si>
   <si>
     <t xml:space="preserve">Ухта, Первомайская, 43, кв. 20, </t>
+  </si>
+  <si>
+    <t>ЛЗ-12</t>
+  </si>
+  <si>
+    <t>Седякина Валентина Георгиевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Володарского, 4, кв. 1, </t>
+  </si>
+  <si>
+    <t>БУ-14з</t>
+  </si>
+  <si>
+    <t>Шибаев Сергей Олегович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Загородная, 2, кв. 6, </t>
+  </si>
+  <si>
+    <t>ТА-12спз</t>
+  </si>
+  <si>
+    <t>Хозяинов Виктор Анатольевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Загородная, 6-а, кв. 27, </t>
+  </si>
+  <si>
+    <t>M-14з</t>
+  </si>
+  <si>
+    <t>Зыкина Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Семяшкина, 10а, кв. 11А-12А, </t>
+  </si>
+  <si>
+    <t>С-13</t>
+  </si>
+  <si>
+    <t>Гордеев Владислав Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Семяшкина, 4А, кв. 15, </t>
+  </si>
+  <si>
+    <t>Гребенщиков Антон Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Семяшкина, 4а, кв. 18, </t>
+  </si>
+  <si>
+    <t>Коду Дарья Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Семяшкина, 4а, кв. 28, </t>
+  </si>
+  <si>
+    <t>БЭРС-13</t>
+  </si>
+  <si>
+    <t>Тягун Артем Владиславович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ухта, Семяшкина, 8, кв. 5, </t>
   </si>
 </sst>
 </file>
@@ -782,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="A2:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,125 +951,125 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,27 +1161,27 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,27 +1203,27 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,111 +1273,111 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1413,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,13 +1427,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,27 +1455,139 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
